--- a/ejemplos/modelos_arbol_individual-masas_puras/Qpetraea_Palencia_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_puras/Qpetraea_Palencia_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,42 +452,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
         <v>2019</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>60</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1966.447741313196</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>45.64065416666666</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>17.93245695546242</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-4.496826814402525</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42.93553042617032</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>38.83618855375943</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>37.10833514774019</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>35.38615840244063</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>34.16420546416876</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>32.98136655816748</v>
       </c>
     </row>
@@ -498,42 +506,45 @@
         </is>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
         <v>2019</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>127.3239544735163</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.585225</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.09999990463257</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-4.424210628941239</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>43.00862942072941</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>51.30744972467885</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>46.51243982038589</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>44.55089802527625</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>42.87329844537454</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>41.42886620524751</v>
       </c>
     </row>
@@ -549,42 +560,45 @@
         </is>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
         <v>2019</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>99</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1511.759752782217</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>44.86434791666667</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>19.69417867377869</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-4.53362233342504</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>42.98907111157351</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>43.12861721941376</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>46.05320538816</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>44.0743110706003</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>42.4769874900724</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>40.96474946495587</v>
       </c>
     </row>
